--- a/TRABAJO PRACTICO/validacion.xlsx
+++ b/TRABAJO PRACTICO/validacion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C5AB6-D10B-46E4-8FE5-EEA3CFCFEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FB084-4A00-4A76-8F21-D31AA3973D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="vale" sheetId="2" r:id="rId1"/>
+    <sheet name="usuario" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>vale</t>
   </si>
@@ -55,14 +56,40 @@
   </si>
   <si>
     <t>acceso</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña corresponde a= usuario</t>
+  </si>
+  <si>
+    <t>El usuario es activo</t>
+  </si>
+  <si>
+    <t>el rol es trabajador de linea</t>
+  </si>
+  <si>
+    <t>YR423</t>
+  </si>
+  <si>
+    <t>SP765</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED645CB-EBB8-4028-BE27-389EDC3060E8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -430,4 +458,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>